--- a/Tweet_Minyak_Goreng.xlsx
+++ b/Tweet_Minyak_Goreng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perkuliahan\Semester 6\Data Mining II\Ujian Akhir Semester_Data Mining II\UAS-DATA_MINING-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44155788-7E73-4429-A1DE-1A99EBE91826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9E54B7-7D0C-40E3-8BF6-1522899FEAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6F1BD59E-E0DD-42FA-B1B8-7A3320AAA20E}"/>
   </bookViews>
@@ -3665,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC353EE1-BBCC-4EFC-9E17-47FDBE3D5468}">
   <dimension ref="A1:C564"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A558" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C564" sqref="C564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
